--- a/data/trans_bre/P25_7-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,48</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>-12,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>233,57%</t>
+          <t>-16,58%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>187,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-46,9%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 15,33</t>
+          <t>-10,41; 20,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 23,53</t>
+          <t>-23,77; 12,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 30,05</t>
+          <t>-6,29; 18,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 763,39</t>
+          <t>-33,59; 6,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 461,48</t>
+          <t>-66,69; 492,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,42; —</t>
+          <t>-75,83; 124,36</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-86,22; 76,69</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,99</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>13,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>123,64%</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,75%</t>
+          <t>74,49%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-26,74%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 25,75</t>
+          <t>-3,29; 28,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 22,06</t>
+          <t>-4,37; 31,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 8,43</t>
+          <t>-37,63; 12,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 451,39</t>
+          <t>-27,6; 23,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 254,83</t>
+          <t>-15,58; 528,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,06; 54,11</t>
+          <t>-19,64; 306,68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-71,8; 69,78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-63,12; 164,63</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,7</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,72</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>113,06%</t>
+          <t>63,27%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>48,93%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>162,16%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 20,13</t>
+          <t>-7,85; 19,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 21,44</t>
+          <t>-3,76; 21,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 21,65</t>
+          <t>-6,43; 20,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,81; 169,7</t>
+          <t>3,18; 26,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 196,05</t>
+          <t>-28,37; 138,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 307,9</t>
+          <t>-16,96; 223,68</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-27,14; 192,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8,48; 603,78</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,47</t>
+          <t>13,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,84</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>69,36%</t>
+          <t>49,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>69,58%</t>
+          <t>41,63%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42,91%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 25,54</t>
+          <t>0,2; 27,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 27,04</t>
+          <t>-2,65; 24,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 24,63</t>
+          <t>-2,09; 23,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,97; 159,5</t>
+          <t>-12,28; 16,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 163,3</t>
+          <t>0,17; 147,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,56; 158,83</t>
+          <t>-6,71; 138,5</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-8,1; 134,74</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-28,05; 59,21</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,31</t>
+          <t>13,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,19</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>27,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>50,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>121,11%</t>
+          <t>71,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>75,85%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>94,1%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 33,82</t>
+          <t>-4,07; 31,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 30,11</t>
+          <t>1,7; 35,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,45; 38,73</t>
+          <t>0,34; 36,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,11; 168,83</t>
+          <t>8,55; 45,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,21; 167,13</t>
+          <t>-14,59; 169,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,82; 264,24</t>
+          <t>1,44; 207,15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 221,93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22,37; 224,95</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,67</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,02</t>
+          <t>33,59</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,53</t>
+          <t>26,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>24,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>118,59%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>100,61%</t>
+          <t>169,1%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>149,9%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>82,24%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 39,32</t>
+          <t>-5,86; 34,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 39,05</t>
+          <t>13,35; 52,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 36,65</t>
+          <t>7,4; 45,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,96; 223,42</t>
+          <t>3,5; 48,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,94; 273,73</t>
+          <t>-14,26; 129,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 235,45</t>
+          <t>43,62; 533,94</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21,01; 503,06</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 275,01</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,79</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,52</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>80,39%</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>58,47%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>42,37%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>35,5%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 19,48</t>
+          <t>4,17; 17,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,3; 20,01</t>
+          <t>5,35; 18,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 19,13</t>
+          <t>0,58; 15,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,4; 124,89</t>
+          <t>-0,26; 17,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,4; 127,3</t>
+          <t>16,14; 91,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,91; 134,35</t>
+          <t>20,92; 106,68</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 91,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 80,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_7-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,6</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>41,54%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-16,58%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>187,94%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-46,9%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.3162918524106578</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.06869385437074937</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.529955598745345</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-11.15383341172927</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.0204893307460744</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.003896511417662815</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.584884992335915</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4326480400210928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,41; 20,84</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-23,77; 12,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,29; 18,46</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-33,59; 6,15</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-66,69; 492,61</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-75,83; 124,36</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-86,22; 76,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.26367663659564</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.74081234025472</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.739203294270726</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-32.36166370840454</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7883142242606116</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7283607718896743</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.8542671579682618</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.75859962346683</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.1343834746772</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.33814770883431</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.476165833680063</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.073574496504259</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.699529153488688</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>0.910594996500804</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,91</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,88</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>93,82%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>74,49%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-26,74%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 28,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 31,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-37,63; 12,41</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-27,6; 23,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-15,58; 528,03</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-19,64; 306,68</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-71,8; 69,78</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-63,12; 164,63</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.3153565998435</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.63585521003152</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-9.789054640731997</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.396786250643007</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.7189667446720018</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6295095827271578</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2860902504720418</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.08299804605925484</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,37</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>15,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>31,59%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>63,27%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>48,93%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>162,16%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.77127519353954</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.632111138728187</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-37.42021644021332</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-28.10722463446207</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4197882967194001</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2558427705064072</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7249988954641602</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.614969619365302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; 19,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 21,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 20,44</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 26,81</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-28,37; 138,01</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; 223,68</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-27,14; 192,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>8,48; 603,78</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>26.87591489224484</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>30.13090365995889</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.92528294921311</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25.11544544585933</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.598963913064999</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.595135161373033</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6249506599599984</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.77324304680107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +823,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,15</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,2</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>49,33%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>41,63%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>42,91%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,58%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.415388668604594</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.85573151883054</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.46738234561573</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>15.88098545667697</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.3398401377330765</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5942073494616462</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5706827026779422</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.777642590879597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 27,23</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 24,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 23,09</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-12,28; 16,52</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 147,11</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 138,5</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 134,74</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-28,05; 59,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.305068630795374</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.023331555781322</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.358976819427743</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>3.82535193499531</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2838065325979037</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1822929873370142</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2417533051356723</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.157801231339477</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.97971342790031</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.56674459671997</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.22829252797215</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>27.01165685097164</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.532845699424504</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.200619003622207</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.109990976116122</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>6.170393237195221</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>13,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>18,01</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>18,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>27,99</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>50,99%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>71,34%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>75,85%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>94,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 31,48</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 35,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 36,93</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>8,55; 45,34</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; 169,22</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 207,15</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 221,93</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>22,37; 224,95</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>9.09988919116061</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.41904458440311</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>11.22848186374164</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.522358457105039</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3173826284087203</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.422274128142216</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4956205881528978</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.04268433368884138</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,73</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>33,59</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>26,12</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>24,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>43,18%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>169,1%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>149,9%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>82,24%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.002972684991925</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.798689189014631</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.73045312948194</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.80254172516685</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1394333943543834</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.07717846693191269</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.05941720330362299</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2842541973874077</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; 34,58</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>13,35; 52,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,4; 45,64</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 48,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 129,64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>43,62; 533,94</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>21,01; 503,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 275,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>23.12518452466203</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>23.81902939219832</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>23.68828122796288</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.34090435389935</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.126297700586429</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.401411320182799</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.487120304975766</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5868293453139074</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1023,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>10,85</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>12,27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>47,61%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>58,47%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>42,37%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>35,5%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>15.88257595938278</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>17.92367136557512</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>20.74043794357435</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>28.27809913274588</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.6309673230448383</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.725628866637232</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.8803808100468233</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.9426223017088285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 17,47</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 18,76</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 15,44</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 17,77</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>16,14; 91,6</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>20,92; 106,68</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 91,37</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 80,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.654511418239772</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.8963665971342383</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>3.42305189074931</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>9.083898517596168</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.06648943508513444</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.009726639588941466</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0.04870807929248305</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.2101135479871509</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>33.89668311720899</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>35.84886897514684</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>39.57820877233481</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>45.26157808614187</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.885963586003876</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>2.152605602909468</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>2.436291194530966</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>2.168950533156076</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>19.56615641905851</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>35.0085594410058</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>27.13727773294359</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>20.01197112556498</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.6038267880943236</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.78562342370584</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>1.578524308276005</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.6520579353574391</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-1.713259448634073</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>14.88918650527749</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>6.237967120025862</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-1.417739379911349</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.06143174130717606</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.4912563053730815</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0.2179780211194375</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.06621204573767564</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>39.29207820802226</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>54.01957599532975</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>46.36407795304638</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>44.7744143825827</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.698776927538325</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>5.512417292871434</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>5.294969699998977</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>2.217821470004399</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>9.759121711328216</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>12.42421227974843</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>9.207750361541189</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>8.939202042658712</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.42057198376673</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.5964544942659821</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.4526917969677635</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.3355130357767948</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2.987423941015747</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>5.845303487455218</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1.132546555305744</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.7731344432949373</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.09475636322964942</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.2303581625937348</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.02419384740720957</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.0391169190923502</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>16.79232583920788</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>19.30052599862982</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>15.69111356916456</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>17.32029635853203</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.8602939764605284</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.079183396261882</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.9543009075373329</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.7843661474291866</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1321,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
